--- a/task1/task13/CreateMenu/CreateMenuTableFormat.xlsx
+++ b/task1/task13/CreateMenu/CreateMenuTableFormat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\211_Công nghệ phần mềm\Assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{10778E47-05B5-4001-9E9E-3C21B562281F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{558707EC-9DF6-4B86-868A-4944B032A7D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0BD06A0B-657C-41E4-95C6-472DC262D6DC}"/>
   </bookViews>
@@ -48,25 +48,55 @@
     <t xml:space="preserve">Điều kiện tiên quyết </t>
   </si>
   <si>
-    <t>Người quản lý có 1 tài khoản quản lí và đang sử dụng phần mềm</t>
-  </si>
-  <si>
     <t>Luồng sự kiện chính</t>
   </si>
   <si>
-    <t>Luồng sự kiện phụ</t>
-  </si>
-  <si>
     <t>Actor</t>
   </si>
   <si>
     <t>Manager</t>
   </si>
   <si>
-    <t>1. Người quản lý truy cập vào phần mềm, màn hình đăng nhập xuất hiện, người quản lý đăng nhập với user và password</t>
-  </si>
-  <si>
-    <t>4. Chỉnh sửa menu bao gồm các lựa chọn: cập nhật số lượng, số món ăn có thể phục vụ, xóa món ăn trong menu đã tạo trước đó, thay đổi món ăn, menu.</t>
+    <t>Kết quả cuối cùng</t>
+  </si>
+  <si>
+    <t>Tạo menu</t>
+  </si>
+  <si>
+    <t>3. Thêm các món ăn phổ biến để gợi ý cho khách hàng bằng cách lấy thống kê các món ăn được khác hàng chọn nhiều từ hệ thống sau đó đưa vào menu phần offer for customers</t>
+  </si>
+  <si>
+    <t>Ngoại lệ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Người quản lý có 1 tài khoản quản lí và đã đăng nhập vào hệ thống bằng tài khoản của mình </t>
+  </si>
+  <si>
+    <t>Người quản lý tạo xong menu và gửi lên database</t>
+  </si>
+  <si>
+    <t>1. Thêm món mới vào trong menu</t>
+  </si>
+  <si>
+    <r>
+      <t>Ở bước 1:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Yêu cầu người quản lí nhập đúng 3 thành phần hình ảnh, giá và mô tả, sau nếu đã nhập xong và không muốn thực hiện các bước sau của luồng sự kiện chính người 
+quản lý chọn Yes và close phần mềm.</t>
+    </r>
+  </si>
+  <si>
+    <t>2. Hệ thống thông báo món ăn nhập vào hợp lệ</t>
+  </si>
+  <si>
+    <t>4. Chỉnh sửa menu (nếu cần) bao gồm các lựa chọn: cập nhật số lượng, số món ăn có thể phục vụ, xóa món ăn trong menu đã tạo trước đó, thay đổi món ăn, menu.</t>
   </si>
   <si>
     <r>
@@ -106,56 +136,6 @@
     </r>
   </si>
   <si>
-    <t>Kết quả cuối cùng</t>
-  </si>
-  <si>
-    <t>Tạo menu</t>
-  </si>
-  <si>
-    <t>Người quản lý tạo xong menu</t>
-  </si>
-  <si>
-    <t>2. Thêm món mới vào trong menu</t>
-  </si>
-  <si>
-    <t>3. Thêm các món ăn phổ biến để gợi ý cho khách hàng bằng cách lấy thống kê các món ăn được khác hàng chọn nhiều từ hệ thống sau đó đưa vào menu phần offer for customers</t>
-  </si>
-  <si>
-    <t>5. Manager kiểm tra lại menu lần cuối và submit lên hệ thống.</t>
-  </si>
-  <si>
-    <r>
-      <t>Ở bước 2:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> Yêu cầu người quản lí nhập đúng 3 thành phần hình ảnh, giá và mô tả, sau nếu đã nhập xong và không muốn thực hiện các bước sau của luồng sự kiện chính người 
-quản lý chọn Yes và close phần mềm.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Ở bước 1:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> Để đăng nhập hệ thống người dùng bắt buộc phải dùng user và password, sau đó hệ thống sẽ kiểm tra nếu nhập đúng đưa người dùng đến bước tiếp theo, nếu nhập sai hệ thống sẽ báo thông tin không chính xác và yêu cầu nhập lại. </t>
-    </r>
-  </si>
-  <si>
-    <t>Ngoại lệ</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -164,7 +144,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>Ở bước 1:</t>
+      <t xml:space="preserve">Ở bước 2: </t>
     </r>
     <r>
       <rPr>
@@ -173,8 +153,35 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> Nếu người quản lý nhập sai và quên tên tài khoản và mật khẩu thì sẽ nhấn vào lấy lại tài khoản và sau đó một yêu cầu được gửi đến hệ thống, người quản lý chờ để được cấp lại tài khoản.</t>
-    </r>
+      <t>Nếu người dùng nhập không đủ 3 thành phần khi thêm món ăn hệ thống sẽ thông báo lỗi, yêu cầu nhập đủ thông tin khi thêm món ăn mới và quay lại màn hình thêm món ăn.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ở bước 5:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Nếu người quản lí kiểm tra thấy thông tin nhập chưa đúng với ý muốn, người quản lí có thể quay lại bước 4 và thực hiện chỉnh sửa menu.</t>
+    </r>
+  </si>
+  <si>
+    <t>5. Manager kiểm tra lại menu lần cuối và submit lên hệ thống bằng cách nhấn vào nút "SEND"</t>
+  </si>
+  <si>
+    <t>Luồng sự kiện phụ</t>
   </si>
 </sst>
 </file>
@@ -217,7 +224,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -257,19 +264,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -283,40 +277,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -631,10 +621,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AC95B59-E56D-42D3-8DF1-4122C5A5D722}">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -644,127 +634,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>14</v>
+      <c r="B1" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>15</v>
+      <c r="B5" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="10"/>
+      <c r="B7" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="10"/>
+      <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3" t="s">
+    <row r="9" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="10"/>
+      <c r="B9" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="4" t="s">
+    <row r="10" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="10"/>
+      <c r="B10" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="9"/>
+      <c r="B12" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3" t="s">
+    <row r="13" spans="1:2" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="9"/>
+      <c r="B13" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="6" t="s">
+      <c r="B14" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="10"/>
+      <c r="B15" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
-      <c r="B13" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A14" s="5"/>
-      <c r="B14" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
     </row>
-    <row r="17" spans="1:2" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-    </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A11:A14"/>
+  <mergeCells count="3">
+    <mergeCell ref="A11:A13"/>
     <mergeCell ref="A6:A10"/>
+    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
